--- a/5-Statistics/p_40_200_92k.saria.xlsx
+++ b/5-Statistics/p_40_200_92k.saria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="528">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1581,6 +1581,12 @@
   </si>
   <si>
     <t xml:space="preserve">Amount %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount Total</t>
   </si>
   <si>
     <t xml:space="preserve">Negative</t>
@@ -1870,7 +1876,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1878,17 +1884,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1981,6 +1987,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1997,43 +2011,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="11" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="12" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2041,75 +2051,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="9" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2121,14 +2115,14 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
     <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -2178,56 +2172,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5429"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5EB91E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD4EA6B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF5429"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD428"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2306,7 +2250,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.81"/>
@@ -8189,18 +8133,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,10 +8171,22 @@
         <v>516</v>
       </c>
       <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">SUM(C5:C55)*100/COUNT(C5:C55)</f>
@@ -8239,7 +8198,7 @@
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">SUM(G5:G52)*100/COUNT(G5:G52)</f>
@@ -8250,10 +8209,23 @@
         <v>19.6</v>
       </c>
       <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>13713</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>92521</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">J2*100/K2</f>
+        <v>14.8214999837875</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">SUM(C56:C254)*100/COUNT(C56:C254)</f>
@@ -8265,7 +8237,7 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">SUM(G53:G254)*100/COUNT(G53:G254)</f>
@@ -8276,6 +8248,19 @@
         <v>80.4</v>
       </c>
       <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>78808</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>92521</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">J3*100/K3</f>
+        <v>85.1785000162125</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22"/>
@@ -13182,11 +13167,11 @@
       <c r="H254" s="22"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="23"/>
+      <c r="A255" s="25"/>
       <c r="B255" s="22"/>
       <c r="C255" s="22"/>
       <c r="D255" s="22"/>
-      <c r="E255" s="23"/>
+      <c r="E255" s="25"/>
       <c r="F255" s="22"/>
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
@@ -13235,11 +13220,11 @@
   </sheetPr>
   <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="6.77"/>
@@ -13253,25 +13238,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>521</v>
+      <c r="C1" s="28" t="s">
+        <v>523</v>
       </c>
       <c r="D1" s="22"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>523</v>
+      <c r="F1" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>525</v>
       </c>
       <c r="I1" s="22"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="24" t="s">
         <v>514</v>
       </c>
       <c r="K1" s="21" t="s">
@@ -13292,12 +13277,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="22"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="30" t="s">
-        <v>524</v>
+      <c r="J2" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">SUM(L5:L55)*100/COUNT(L5:L55)</f>
@@ -13319,22 +13304,22 @@
         <v>0</v>
       </c>
       <c r="D3" s="22"/>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="35" t="n">
         <v>-8</v>
       </c>
-      <c r="F3" s="35" t="n">
+      <c r="F3" s="36" t="n">
         <v>0.108</v>
       </c>
-      <c r="G3" s="36" t="n">
+      <c r="G3" s="37" t="n">
         <v>0.0754716981132075</v>
       </c>
-      <c r="H3" s="37" t="n">
+      <c r="H3" s="38" t="n">
         <f aca="false">G3-F3</f>
         <v>-0.0325283018867925</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="30" t="s">
-        <v>520</v>
+      <c r="J3" s="24" t="s">
+        <v>522</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">SUM(L56:L254)*100/COUNT(L56:L254)</f>
@@ -13356,21 +13341,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="22"/>
-      <c r="E4" s="34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" s="35" t="n">
+      <c r="E4" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="36" t="n">
         <v>0.052</v>
       </c>
-      <c r="G4" s="36" t="n">
+      <c r="G4" s="37" t="n">
         <v>0.0377358490566038</v>
       </c>
-      <c r="H4" s="37" t="n">
+      <c r="H4" s="38" t="n">
         <f aca="false">G4-F4</f>
         <v>-0.0142641509433962</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
@@ -13385,16 +13370,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="35" t="n">
         <v>-9</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="36" t="n">
         <v>0.032</v>
       </c>
-      <c r="G5" s="36" t="n">
+      <c r="G5" s="37" t="n">
         <v>0.0188679245283019</v>
       </c>
-      <c r="H5" s="37" t="n">
+      <c r="H5" s="38" t="n">
         <f aca="false">G5-F5</f>
         <v>-0.0131320754716981</v>
       </c>
@@ -13420,16 +13405,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="35" t="n">
         <v>-6</v>
       </c>
-      <c r="F6" s="35" t="n">
+      <c r="F6" s="36" t="n">
         <v>0.008</v>
       </c>
-      <c r="G6" s="36" t="n">
+      <c r="G6" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="37" t="n">
+      <c r="H6" s="38" t="n">
         <f aca="false">G6-F6</f>
         <v>-0.008</v>
       </c>
@@ -13455,16 +13440,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="35" t="n">
         <v>-17</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="36" t="n">
         <v>0.004</v>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="37" t="n">
+      <c r="H7" s="38" t="n">
         <f aca="false">G7-F7</f>
         <v>-0.004</v>
       </c>
@@ -13490,16 +13475,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="22"/>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <v>-14</v>
       </c>
-      <c r="F8" s="39" t="n">
+      <c r="F8" s="40" t="n">
         <v>0.024</v>
       </c>
-      <c r="G8" s="40" t="n">
+      <c r="G8" s="41" t="n">
         <v>0.0235849056603774</v>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">G8-F8</f>
         <v>-0.00041509433962264</v>
       </c>
@@ -13525,16 +13510,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="F9" s="40" t="n">
         <v>0.052</v>
       </c>
-      <c r="G9" s="40" t="n">
+      <c r="G9" s="41" t="n">
         <v>0.0518867924528302</v>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="9" t="n">
         <f aca="false">G9-F9</f>
         <v>-0.000113207547169807</v>
       </c>
@@ -13560,13 +13545,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="39" t="n">
         <v>23</v>
       </c>
-      <c r="F10" s="43" t="n">
+      <c r="F10" s="42" t="n">
         <v>0.028</v>
       </c>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="43" t="n">
         <v>0.0283018867924528</v>
       </c>
       <c r="H10" s="9" t="n">
@@ -13595,13 +13580,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="45" t="n">
+      <c r="E11" s="44" t="n">
         <v>-18</v>
       </c>
-      <c r="F11" s="46" t="n">
+      <c r="F11" s="45" t="n">
         <v>0.004</v>
       </c>
-      <c r="G11" s="47" t="n">
+      <c r="G11" s="46" t="n">
         <v>0.00471698113207547</v>
       </c>
       <c r="H11" s="9" t="n">
@@ -13630,13 +13615,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="42" t="n">
+      <c r="E12" s="39" t="n">
         <v>-3</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="40" t="n">
         <v>0.004</v>
       </c>
-      <c r="G12" s="49" t="n">
+      <c r="G12" s="41" t="n">
         <v>0.00471698113207547</v>
       </c>
       <c r="H12" s="9" t="n">
@@ -13665,13 +13650,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="39" t="n">
         <v>-5</v>
       </c>
-      <c r="F13" s="48" t="n">
+      <c r="F13" s="40" t="n">
         <v>0.008</v>
       </c>
-      <c r="G13" s="49" t="n">
+      <c r="G13" s="41" t="n">
         <v>0.00943396226415094</v>
       </c>
       <c r="H13" s="9" t="n">
@@ -13700,13 +13685,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="42" t="n">
+      <c r="E14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="48" t="n">
+      <c r="F14" s="40" t="n">
         <v>0.008</v>
       </c>
-      <c r="G14" s="49" t="n">
+      <c r="G14" s="41" t="n">
         <v>0.00943396226415094</v>
       </c>
       <c r="H14" s="9" t="n">
@@ -13735,13 +13720,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="39" t="n">
         <v>-10</v>
       </c>
-      <c r="F15" s="48" t="n">
+      <c r="F15" s="40" t="n">
         <v>0.012</v>
       </c>
-      <c r="G15" s="49" t="n">
+      <c r="G15" s="41" t="n">
         <v>0.0141509433962264</v>
       </c>
       <c r="H15" s="9" t="n">
@@ -13770,13 +13755,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="40" t="n">
         <v>0.012</v>
       </c>
-      <c r="G16" s="49" t="n">
+      <c r="G16" s="41" t="n">
         <v>0.0141509433962264</v>
       </c>
       <c r="H16" s="9" t="n">
@@ -13805,13 +13790,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="22"/>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="39" t="n">
         <v>21</v>
       </c>
-      <c r="F17" s="48" t="n">
+      <c r="F17" s="40" t="n">
         <v>0.012</v>
       </c>
-      <c r="G17" s="49" t="n">
+      <c r="G17" s="41" t="n">
         <v>0.0141509433962264</v>
       </c>
       <c r="H17" s="9" t="n">
@@ -13840,13 +13825,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="48" t="n">
+      <c r="E18" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40" t="n">
         <v>0.02</v>
       </c>
-      <c r="G18" s="49" t="n">
+      <c r="G18" s="41" t="n">
         <v>0.0235849056603774</v>
       </c>
       <c r="H18" s="9" t="n">
@@ -13875,13 +13860,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="22"/>
-      <c r="E19" s="42" t="n">
+      <c r="E19" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="F19" s="48" t="n">
+      <c r="F19" s="40" t="n">
         <v>0.028</v>
       </c>
-      <c r="G19" s="49" t="n">
+      <c r="G19" s="41" t="n">
         <v>0.0330188679245283</v>
       </c>
       <c r="H19" s="9" t="n">
@@ -13910,13 +13895,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="42" t="n">
+      <c r="E20" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="48" t="n">
+      <c r="F20" s="40" t="n">
         <v>0.044</v>
       </c>
-      <c r="G20" s="49" t="n">
+      <c r="G20" s="41" t="n">
         <v>0.0518867924528302</v>
       </c>
       <c r="H20" s="9" t="n">
@@ -13945,13 +13930,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="F21" s="48" t="n">
+      <c r="F21" s="40" t="n">
         <v>0.1</v>
       </c>
-      <c r="G21" s="49" t="n">
+      <c r="G21" s="41" t="n">
         <v>0.108490566037736</v>
       </c>
       <c r="H21" s="9" t="n">
@@ -13980,13 +13965,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="42" t="n">
+      <c r="E22" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="48" t="n">
+      <c r="F22" s="40" t="n">
         <v>0.052</v>
       </c>
-      <c r="G22" s="49" t="n">
+      <c r="G22" s="41" t="n">
         <v>0.0613207547169811</v>
       </c>
       <c r="H22" s="9" t="n">
@@ -14015,13 +14000,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="42" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" s="48" t="n">
+      <c r="E23" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="40" t="n">
         <v>0.108</v>
       </c>
-      <c r="G23" s="49" t="n">
+      <c r="G23" s="41" t="n">
         <v>0.117924528301887</v>
       </c>
       <c r="H23" s="9" t="n">
@@ -14050,13 +14035,13 @@
         <v>1</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="42" t="n">
-        <v>8</v>
-      </c>
-      <c r="F24" s="48" t="n">
+      <c r="E24" s="39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" s="40" t="n">
         <v>0.28</v>
       </c>
-      <c r="G24" s="49" t="n">
+      <c r="G24" s="41" t="n">
         <v>0.297169811320755</v>
       </c>
       <c r="H24" s="9" t="n">
@@ -14085,9 +14070,9 @@
         <v>1</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="17" t="s">
@@ -14111,13 +14096,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="53" t="s">
-        <v>525</v>
-      </c>
-      <c r="F26" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="55" t="n">
+      <c r="E26" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="F26" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="52" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="22"/>
@@ -18690,9 +18675,9 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="23"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="23"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
       <c r="D252" s="22"/>
       <c r="I252" s="22"/>
       <c r="J252" s="17" t="s">
@@ -18726,7 +18711,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I255" s="22"/>
-      <c r="J255" s="23"/>
+      <c r="J255" s="25"/>
       <c r="K255" s="22"/>
       <c r="L255" s="22"/>
     </row>
